--- a/res/sbs/sbs_koppeldoc_dl.xlsx
+++ b/res/sbs/sbs_koppeldoc_dl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbiholding-my.sharepoint.com/personal/nilan_bais_croonwolterendros_nl/Documents/Documenten/GitHub/DocumentenLobby/res/sbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{022FD11C-7746-4C0F-A770-AF64529A18A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95232732-7117-4D13-BC31-020A2EB2A946}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{022FD11C-7746-4C0F-A770-AF64529A18A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C9B6A1B1-4D8B-4938-B75D-F788692ABCD5}"/>
   <bookViews>
-    <workbookView xWindow="34380" yWindow="975" windowWidth="21600" windowHeight="11325" xr2:uid="{65F3494C-DC4F-4814-97AD-1A75043BB1CF}"/>
+    <workbookView xWindow="28680" yWindow="-3165" windowWidth="29040" windowHeight="15840" xr2:uid="{65F3494C-DC4F-4814-97AD-1A75043BB1CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="212">
   <si>
     <t>sbs nummer generiek</t>
   </si>
@@ -630,6 +630,45 @@
   </si>
   <si>
     <t>59, 74</t>
+  </si>
+  <si>
+    <t>sbs nummer Maastunnel</t>
+  </si>
+  <si>
+    <t>31, 32</t>
+  </si>
+  <si>
+    <t>11, 37</t>
+  </si>
+  <si>
+    <t>41, 45</t>
+  </si>
+  <si>
+    <t>82, 83</t>
+  </si>
+  <si>
+    <t>87, 92</t>
+  </si>
+  <si>
+    <t>91, 94</t>
+  </si>
+  <si>
+    <t>sbs nummer Westerscheldetunnel</t>
+  </si>
+  <si>
+    <t>sbs nummer Westerscheldetunnel RAMS</t>
+  </si>
+  <si>
+    <t>140, 145</t>
+  </si>
+  <si>
+    <t>160, 163</t>
+  </si>
+  <si>
+    <t>160, 164</t>
+  </si>
+  <si>
+    <t>180, 182, 184</t>
   </si>
 </sst>
 </file>
@@ -990,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589E8CC9-E53E-4CDE-B1E0-F948A8D8A015}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1003,9 +1042,12 @@
     <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1021,8 +1063,17 @@
       <c r="E1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1085,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1094,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1054,8 +1105,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1066,8 +1123,14 @@
         <v>12</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1078,8 +1141,14 @@
         <v>13</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1157,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1099,8 +1168,14 @@
         <v>16</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1111,8 +1186,14 @@
         <v>16</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1121,7 +1202,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1216,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1230,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1239,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1167,7 +1248,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1257,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1185,7 +1266,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1275,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1210,8 +1291,14 @@
       <c r="E18" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1221,8 +1308,14 @@
       <c r="E19" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1231,7 +1324,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1240,7 +1333,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1348,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1270,7 +1363,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1287,7 +1380,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1302,7 +1395,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1315,8 +1408,11 @@
       <c r="E26" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1328,7 +1424,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1340,7 +1436,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1349,7 +1445,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1365,8 +1461,14 @@
       <c r="E30" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1380,8 +1482,11 @@
         <v>52</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1390,7 +1495,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1399,15 +1504,18 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1421,7 +1529,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1449,7 +1557,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1462,8 +1570,17 @@
       <c r="D38">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1479,8 +1596,17 @@
       <c r="E39" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>42</v>
+      </c>
+      <c r="G39">
+        <v>42</v>
+      </c>
+      <c r="H39">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1490,8 +1616,17 @@
       <c r="C40">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>43</v>
+      </c>
+      <c r="G40">
+        <v>43</v>
+      </c>
+      <c r="H40">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1499,7 +1634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1507,7 +1642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1515,7 +1650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1523,7 +1658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1539,8 +1674,14 @@
       <c r="E45" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1554,7 +1695,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1565,7 +1706,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1576,7 +1717,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1587,7 +1728,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1598,7 +1739,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1611,8 +1752,11 @@
       <c r="D51">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1623,7 +1767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1637,7 +1781,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1645,7 +1789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1653,7 +1797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1661,7 +1805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1669,7 +1813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1682,8 +1826,17 @@
       <c r="D58">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>51</v>
+      </c>
+      <c r="G58">
+        <v>51</v>
+      </c>
+      <c r="H58">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1696,8 +1849,14 @@
       <c r="D59">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>53</v>
+      </c>
+      <c r="G59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1710,8 +1869,11 @@
       <c r="E60" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1719,7 +1881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1733,7 +1895,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1749,8 +1911,17 @@
       <c r="E63" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>61</v>
+      </c>
+      <c r="G63">
+        <v>61</v>
+      </c>
+      <c r="H63">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1763,8 +1934,17 @@
       <c r="D64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>62</v>
+      </c>
+      <c r="G64">
+        <v>62</v>
+      </c>
+      <c r="H64">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1780,8 +1960,11 @@
       <c r="E65" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1797,8 +1980,17 @@
       <c r="E66" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>63</v>
+      </c>
+      <c r="G66">
+        <v>63</v>
+      </c>
+      <c r="H66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1814,8 +2006,17 @@
       <c r="E67" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>64</v>
+      </c>
+      <c r="G67">
+        <v>64</v>
+      </c>
+      <c r="H67">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1829,7 +2030,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1837,7 +2038,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1845,7 +2046,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1856,7 +2057,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1867,7 +2068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1875,15 +2076,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1891,7 +2095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1899,7 +2103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1915,8 +2119,14 @@
       <c r="E77" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>71</v>
+      </c>
+      <c r="G77">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1933,7 +2143,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1950,7 +2160,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1966,8 +2176,14 @@
       <c r="E80" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>73</v>
+      </c>
+      <c r="G80">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1984,7 +2200,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2000,8 +2216,14 @@
       <c r="E82" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>76</v>
+      </c>
+      <c r="G82">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2009,7 +2231,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2017,7 +2239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2030,8 +2252,17 @@
       <c r="E85" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>203</v>
+      </c>
+      <c r="G85" t="s">
+        <v>203</v>
+      </c>
+      <c r="H85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2041,8 +2272,17 @@
       <c r="E86" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>86</v>
+      </c>
+      <c r="G86">
+        <v>86</v>
+      </c>
+      <c r="H86">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2058,8 +2298,17 @@
       <c r="E87" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>85</v>
+      </c>
+      <c r="G87">
+        <v>85</v>
+      </c>
+      <c r="H87">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2067,7 +2316,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2077,8 +2326,14 @@
       <c r="E89" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>204</v>
+      </c>
+      <c r="G89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2089,7 +2344,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2097,7 +2352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2105,7 +2360,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2113,7 +2368,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2121,15 +2376,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
       <c r="B95">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>46</v>
+      </c>
+      <c r="G95">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>159</v>
       </c>
@@ -2402,7 +2663,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -2410,7 +2671,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -2418,7 +2679,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -2426,7 +2687,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -2434,7 +2695,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -2442,7 +2703,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -2450,7 +2711,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -2458,7 +2719,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -2466,7 +2727,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -2474,7 +2735,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -2482,15 +2743,24 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
       <c r="B139">
         <v>1042</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>205</v>
+      </c>
+      <c r="G139" t="s">
+        <v>205</v>
+      </c>
+      <c r="H139">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -2498,7 +2768,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -2506,7 +2776,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -2514,7 +2784,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -2522,7 +2792,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -2530,7 +2800,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -2538,7 +2808,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -2546,7 +2816,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -2554,7 +2824,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -2562,7 +2832,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -2570,7 +2840,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -2578,7 +2848,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -2588,8 +2858,14 @@
       <c r="E151">
         <v>30</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>200</v>
+      </c>
+      <c r="G151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -2597,7 +2873,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -2605,7 +2881,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -2613,7 +2889,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -2621,21 +2897,18 @@
         <v>9009</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
       <c r="B156">
         <v>9999</v>
       </c>
-      <c r="C156">
-        <v>9999</v>
-      </c>
-      <c r="D156">
-        <v>9999</v>
-      </c>
-      <c r="E156">
-        <v>9999</v>
+      <c r="F156" t="s">
+        <v>201</v>
+      </c>
+      <c r="G156" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/res/sbs/sbs_koppeldoc_dl.xlsx
+++ b/res/sbs/sbs_koppeldoc_dl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbiholding-my.sharepoint.com/personal/nilan_bais_croonwolterendros_nl/Documents/Documenten/GitHub/DocumentenLobby/res/sbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="8_{022FD11C-7746-4C0F-A770-AF64529A18A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C9B6A1B1-4D8B-4938-B75D-F788692ABCD5}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{022FD11C-7746-4C0F-A770-AF64529A18A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31046663-3E0E-444D-B0B8-2CBB3A17CCF7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-3165" windowWidth="29040" windowHeight="15840" xr2:uid="{65F3494C-DC4F-4814-97AD-1A75043BB1CF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="216">
   <si>
     <t>sbs nummer generiek</t>
   </si>
@@ -669,6 +669,18 @@
   </si>
   <si>
     <t>180, 182, 184</t>
+  </si>
+  <si>
+    <t>Elektrotechniek</t>
+  </si>
+  <si>
+    <t>Civiel</t>
+  </si>
+  <si>
+    <t>Werktuigbouwkunde</t>
+  </si>
+  <si>
+    <t>discipline</t>
   </si>
 </sst>
 </file>
@@ -1029,878 +1041,1065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589E8CC9-E53E-4CDE-B1E0-F948A8D8A015}">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>163</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>199</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>206</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4">
-        <v>12</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5">
-        <v>12</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>13</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6">
-        <v>13</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>16</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8">
-        <v>15</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>16</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9">
-        <v>15</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>10</v>
+      <c r="B12" t="s">
+        <v>212</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13">
         <v>11</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14">
         <v>12</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15">
         <v>13</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16">
         <v>14</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17">
         <v>15</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18">
         <v>16</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
       </c>
       <c r="D18">
         <v>21</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F18" s="2">
-        <v>21</v>
       </c>
       <c r="G18" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19">
         <v>17</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F19">
-        <v>22</v>
       </c>
       <c r="G19">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20">
         <v>18</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21">
         <v>19</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22">
         <v>20</v>
-      </c>
-      <c r="C22">
-        <v>22</v>
       </c>
       <c r="D22">
         <v>22</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23">
         <v>21</v>
-      </c>
-      <c r="C23">
-        <v>23</v>
       </c>
       <c r="D23">
         <v>23</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24">
         <v>22</v>
-      </c>
-      <c r="C24">
-        <v>24</v>
       </c>
       <c r="D24">
         <v>24</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25">
         <v>23</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>192</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27">
         <v>25</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>28</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28">
         <v>26</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>30</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29">
         <v>27</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>36</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="F30">
-        <v>36</v>
       </c>
       <c r="G30">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31">
         <v>29</v>
-      </c>
-      <c r="C31">
-        <v>52</v>
       </c>
       <c r="D31">
         <v>52</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="H31">
+      <c r="E31">
+        <v>52</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="I31">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32">
         <v>30</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33">
         <v>31</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34">
         <v>32</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35">
         <v>33</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>38</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37">
         <v>35</v>
-      </c>
-      <c r="C37">
-        <v>41</v>
       </c>
       <c r="D37">
         <v>41</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38">
         <v>36</v>
-      </c>
-      <c r="C38">
-        <v>42</v>
       </c>
       <c r="D38">
         <v>42</v>
       </c>
-      <c r="F38" t="s">
-        <v>202</v>
+      <c r="E38">
+        <v>42</v>
       </c>
       <c r="G38" t="s">
         <v>202</v>
       </c>
       <c r="H38" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39">
         <v>37</v>
-      </c>
-      <c r="C39">
-        <v>43</v>
       </c>
       <c r="D39">
         <v>43</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
         <v>171</v>
-      </c>
-      <c r="F39">
-        <v>42</v>
       </c>
       <c r="G39">
         <v>42</v>
       </c>
       <c r="H39">
+        <v>42</v>
+      </c>
+      <c r="I39">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40">
         <v>38</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>44</v>
-      </c>
-      <c r="F40">
-        <v>43</v>
       </c>
       <c r="G40">
         <v>43</v>
       </c>
       <c r="H40">
+        <v>43</v>
+      </c>
+      <c r="I40">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45">
         <v>43</v>
-      </c>
-      <c r="C45">
-        <v>45</v>
       </c>
       <c r="D45">
         <v>45</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
         <v>172</v>
-      </c>
-      <c r="F45">
-        <v>44</v>
       </c>
       <c r="G45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>194</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48">
         <v>46</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50">
         <v>48</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>197</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>47</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52">
         <v>50</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53">
         <v>51</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>157</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58">
         <v>56</v>
-      </c>
-      <c r="C58">
-        <v>51</v>
       </c>
       <c r="D58">
         <v>51</v>
       </c>
-      <c r="F58">
+      <c r="E58">
         <v>51</v>
       </c>
       <c r="G58">
         <v>51</v>
       </c>
       <c r="H58">
+        <v>51</v>
+      </c>
+      <c r="I58">
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59">
         <v>57</v>
-      </c>
-      <c r="C59">
-        <v>53</v>
       </c>
       <c r="D59">
         <v>53</v>
       </c>
-      <c r="F59">
+      <c r="E59">
         <v>53</v>
       </c>
       <c r="G59">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60">
         <v>58</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>198</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>182</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62">
         <v>60</v>
-      </c>
-      <c r="C62">
-        <v>91</v>
       </c>
       <c r="D62">
         <v>91</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
-        <v>61</v>
+      <c r="B63" t="s">
+        <v>212</v>
       </c>
       <c r="C63">
         <v>61</v>
@@ -1908,25 +2107,28 @@
       <c r="D63">
         <v>61</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63">
+        <v>61</v>
+      </c>
+      <c r="F63" t="s">
         <v>174</v>
-      </c>
-      <c r="F63">
-        <v>61</v>
       </c>
       <c r="G63">
         <v>61</v>
       </c>
       <c r="H63">
+        <v>61</v>
+      </c>
+      <c r="I63">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
-        <v>62</v>
+      <c r="B64" t="s">
+        <v>212</v>
       </c>
       <c r="C64">
         <v>62</v>
@@ -1934,22 +2136,25 @@
       <c r="D64">
         <v>62</v>
       </c>
-      <c r="F64">
+      <c r="E64">
         <v>62</v>
       </c>
       <c r="G64">
         <v>62</v>
       </c>
       <c r="H64">
+        <v>62</v>
+      </c>
+      <c r="I64">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>63</v>
+      <c r="B65" t="s">
+        <v>212</v>
       </c>
       <c r="C65">
         <v>63</v>
@@ -1957,19 +2162,22 @@
       <c r="D65">
         <v>63</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65" t="s">
         <v>176</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>64</v>
+      <c r="B66" t="s">
+        <v>212</v>
       </c>
       <c r="C66">
         <v>64</v>
@@ -1977,937 +2185,1210 @@
       <c r="D66">
         <v>64</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66">
+        <v>64</v>
+      </c>
+      <c r="F66" t="s">
         <v>175</v>
-      </c>
-      <c r="F66">
-        <v>63</v>
       </c>
       <c r="G66">
         <v>63</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66">
+        <v>63</v>
+      </c>
+      <c r="I66" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67">
         <v>65</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>63</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>65</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>177</v>
-      </c>
-      <c r="F67">
-        <v>64</v>
       </c>
       <c r="G67">
         <v>64</v>
       </c>
       <c r="H67">
+        <v>64</v>
+      </c>
+      <c r="I67">
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68">
         <v>66</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>67</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71">
         <v>69</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72">
         <v>70</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74">
         <v>72</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77">
         <v>75</v>
-      </c>
-      <c r="C77">
-        <v>71</v>
       </c>
       <c r="D77">
         <v>71</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77">
+        <v>71</v>
+      </c>
+      <c r="F77" t="s">
         <v>179</v>
-      </c>
-      <c r="F77">
-        <v>71</v>
       </c>
       <c r="G77">
         <v>71</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78">
         <v>76</v>
-      </c>
-      <c r="C78">
-        <v>72</v>
       </c>
       <c r="D78">
         <v>72</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78">
+        <v>72</v>
+      </c>
+      <c r="F78" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79">
         <v>77</v>
-      </c>
-      <c r="C79">
-        <v>72</v>
       </c>
       <c r="D79">
         <v>72</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79">
+        <v>72</v>
+      </c>
+      <c r="F79" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80">
         <v>78</v>
-      </c>
-      <c r="C80">
-        <v>73</v>
       </c>
       <c r="D80">
         <v>73</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80">
+        <v>73</v>
+      </c>
+      <c r="F80" t="s">
         <v>181</v>
-      </c>
-      <c r="F80">
-        <v>73</v>
       </c>
       <c r="G80">
         <v>73</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81">
         <v>79</v>
-      </c>
-      <c r="C81">
-        <v>75</v>
       </c>
       <c r="D81">
         <v>75</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82">
         <v>80</v>
-      </c>
-      <c r="C82">
-        <v>78</v>
       </c>
       <c r="D82">
         <v>78</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s">
         <v>184</v>
-      </c>
-      <c r="F82">
-        <v>76</v>
       </c>
       <c r="G82">
         <v>76</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85">
         <v>83</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>86</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>186</v>
-      </c>
-      <c r="F85" t="s">
-        <v>203</v>
       </c>
       <c r="G85" t="s">
         <v>203</v>
       </c>
       <c r="H85" t="s">
+        <v>203</v>
+      </c>
+      <c r="I85" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86">
         <v>84</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>185</v>
-      </c>
-      <c r="F86">
-        <v>86</v>
       </c>
       <c r="G86">
         <v>86</v>
       </c>
       <c r="H86">
+        <v>86</v>
+      </c>
+      <c r="I86">
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87">
         <v>85</v>
-      </c>
-      <c r="C87">
-        <v>84</v>
       </c>
       <c r="D87">
         <v>84</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87">
+        <v>84</v>
+      </c>
+      <c r="F87" t="s">
         <v>187</v>
-      </c>
-      <c r="F87">
-        <v>85</v>
       </c>
       <c r="G87">
         <v>85</v>
       </c>
       <c r="H87">
+        <v>85</v>
+      </c>
+      <c r="I87">
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89">
         <v>87</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>188</v>
-      </c>
-      <c r="F89" t="s">
-        <v>204</v>
       </c>
       <c r="G89" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90">
         <v>88</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95">
         <v>93</v>
-      </c>
-      <c r="F95">
-        <v>46</v>
       </c>
       <c r="G95">
         <v>46</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D96" t="s">
-        <v>160</v>
+        <v>213</v>
+      </c>
+      <c r="C96">
+        <v>1001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
-      </c>
-      <c r="D97" t="s">
-        <v>162</v>
+        <v>213</v>
+      </c>
+      <c r="C97">
+        <v>1002</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>1001</v>
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98">
+        <v>1003</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>1002</v>
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99">
+        <v>1004</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>1003</v>
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100">
+        <v>1005</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>1004</v>
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>213</v>
+      </c>
+      <c r="C101">
+        <v>1006</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>1005</v>
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102">
+        <v>1007</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>1006</v>
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103">
+        <v>1008</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>1007</v>
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104">
+        <v>1009</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>1008</v>
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105">
+        <v>1010</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>1009</v>
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106">
+        <v>1011</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>1010</v>
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107">
+        <v>1012</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>1011</v>
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108">
+        <v>1013</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>1012</v>
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109">
+        <v>1014</v>
+      </c>
+      <c r="D109">
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>1013</v>
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110">
+        <v>1015</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>1014</v>
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>213</v>
       </c>
       <c r="C111">
-        <v>30</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>213</v>
+      </c>
+      <c r="C116">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>213</v>
+      </c>
+      <c r="C117">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>213</v>
+      </c>
+      <c r="C119">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>213</v>
+      </c>
+      <c r="C120">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>213</v>
+      </c>
+      <c r="C123">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>213</v>
+      </c>
+      <c r="C128">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>213</v>
+      </c>
+      <c r="C129">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>213</v>
+      </c>
+      <c r="C132">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>213</v>
+      </c>
+      <c r="C133">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>213</v>
+      </c>
+      <c r="C136">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>213</v>
+      </c>
+      <c r="C137">
+        <v>1042</v>
+      </c>
+      <c r="G137" t="s">
+        <v>205</v>
+      </c>
+      <c r="H137" t="s">
+        <v>205</v>
+      </c>
+      <c r="I137">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>1042</v>
-      </c>
-      <c r="F139" t="s">
-        <v>205</v>
-      </c>
-      <c r="G139" t="s">
-        <v>205</v>
-      </c>
-      <c r="H139">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>213</v>
+      </c>
+      <c r="C139">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>213</v>
+      </c>
+      <c r="C140">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>213</v>
+      </c>
+      <c r="C142">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>213</v>
+      </c>
+      <c r="C143">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>213</v>
+      </c>
+      <c r="C144">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>214</v>
+      </c>
+      <c r="C145">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>214</v>
+      </c>
+      <c r="C146">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>214</v>
+      </c>
+      <c r="C147">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>214</v>
+      </c>
+      <c r="C148">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>214</v>
+      </c>
+      <c r="C149">
+        <v>2005</v>
+      </c>
+      <c r="F149">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s">
+        <v>200</v>
+      </c>
+      <c r="H149" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>214</v>
+      </c>
+      <c r="C150">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>2005</v>
-      </c>
-      <c r="E151">
-        <v>30</v>
-      </c>
-      <c r="F151" t="s">
-        <v>200</v>
-      </c>
-      <c r="G151" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>214</v>
+      </c>
+      <c r="C151">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>214</v>
+      </c>
+      <c r="C152">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="B153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153" t="s">
+        <v>160</v>
+      </c>
+      <c r="E153" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>162</v>
+      </c>
+      <c r="E154" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155">
         <v>9009</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C156">
         <v>9999</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>201</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>201</v>
       </c>
     </row>
